--- a/Bank/中医内科学/胃/Bank_呃逆.xlsx
+++ b/Bank/中医内科学/胃/Bank_呃逆.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliot/Desktop/wall/Bank/中医内科学/胃/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="106">
   <si>
     <t>症见呃声沉缓有力，胸膈及胃皖不舒，得热则减，遇寒则甚，进食减少，口淡，舌苔白，脉迟缓。应辨为何证</t>
   </si>
@@ -331,12 +342,18 @@
   </si>
   <si>
     <t>诊断：呃逆。辨证：胃中积热。分析：患者发病则喉间呃呃连声，声短而频，令人不能自止，故诊断为呃逆。肝胃郁热，故冒酸；胃中邪热积蓄一些天，达到一定量后即发，发作一些天后邪气得以宣泄，故可停止，所以10天左右发1次，每次持续约7天左右，平时大便尚正常，但发时大便较干。《本草纲目》载“新麦性热”，胃中积热，复加麦热，胃失和降，胃气上逆动膈，故就诊时闻及患者呃声频频，其声有力，查之舌尖红；有时返出物有白泡泡，苔白，脉弦细，多系兼有些许寒湿。本病病机为胃中积热，胃失和降，胃气上逆动膈。治法：清热和胃，降逆止呃，兼温胃化湿。方药：竹叶石膏汤加减。竹茹12g黄连5g黄苓15g柿蒂10g代赭石30g枇杷叶10g吴茱萸5g砂仁10g瓦楞子30g</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>case</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,12 +668,12 @@
   <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G1" sqref="G1:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -672,6 +689,9 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1">
+        <v>45</v>
+      </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
@@ -682,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -698,6 +718,9 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
@@ -708,7 +731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -724,6 +747,9 @@
       <c r="F3" t="s">
         <v>13</v>
       </c>
+      <c r="G3">
+        <v>45</v>
+      </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
@@ -734,7 +760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -750,6 +776,9 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
+      <c r="G4">
+        <v>45</v>
+      </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
@@ -760,7 +789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -776,6 +805,9 @@
       <c r="F5" t="s">
         <v>22</v>
       </c>
+      <c r="G5">
+        <v>45</v>
+      </c>
       <c r="H5" t="s">
         <v>5</v>
       </c>
@@ -786,7 +818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>24</v>
       </c>
@@ -802,6 +834,9 @@
       <c r="F6" t="s">
         <v>28</v>
       </c>
+      <c r="G6">
+        <v>45</v>
+      </c>
       <c r="H6" t="s">
         <v>5</v>
       </c>
@@ -812,7 +847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -828,6 +863,9 @@
       <c r="F7" t="s">
         <v>34</v>
       </c>
+      <c r="G7">
+        <v>45</v>
+      </c>
       <c r="H7" t="s">
         <v>5</v>
       </c>
@@ -838,7 +876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -854,6 +892,9 @@
       <c r="F8" t="s">
         <v>37</v>
       </c>
+      <c r="G8">
+        <v>45</v>
+      </c>
       <c r="H8" t="s">
         <v>5</v>
       </c>
@@ -864,7 +905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>42</v>
       </c>
@@ -880,6 +921,9 @@
       <c r="F9" t="s">
         <v>41</v>
       </c>
+      <c r="G9">
+        <v>45</v>
+      </c>
       <c r="H9" t="s">
         <v>5</v>
       </c>
@@ -890,7 +934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>43</v>
       </c>
@@ -906,6 +950,9 @@
       <c r="F10" t="s">
         <v>39</v>
       </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
       <c r="H10" t="s">
         <v>5</v>
       </c>
@@ -916,7 +963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>44</v>
       </c>
@@ -932,6 +979,9 @@
       <c r="F11" t="s">
         <v>48</v>
       </c>
+      <c r="G11">
+        <v>45</v>
+      </c>
       <c r="H11" t="s">
         <v>57</v>
       </c>
@@ -945,7 +995,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>51</v>
       </c>
@@ -961,6 +1011,9 @@
       <c r="F12" t="s">
         <v>55</v>
       </c>
+      <c r="G12">
+        <v>45</v>
+      </c>
       <c r="H12" t="s">
         <v>57</v>
       </c>
@@ -974,7 +1027,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>58</v>
       </c>
@@ -990,6 +1043,9 @@
       <c r="F13" t="s">
         <v>60</v>
       </c>
+      <c r="G13">
+        <v>45</v>
+      </c>
       <c r="H13" t="s">
         <v>57</v>
       </c>
@@ -1003,7 +1059,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>61</v>
       </c>
@@ -1019,6 +1075,9 @@
       <c r="F14" t="s">
         <v>65</v>
       </c>
+      <c r="G14">
+        <v>45</v>
+      </c>
       <c r="H14" t="s">
         <v>57</v>
       </c>
@@ -1032,7 +1091,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>67</v>
       </c>
@@ -1048,6 +1107,9 @@
       <c r="F15" t="s">
         <v>71</v>
       </c>
+      <c r="G15">
+        <v>45</v>
+      </c>
       <c r="H15" t="s">
         <v>57</v>
       </c>
@@ -1061,7 +1123,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>73</v>
       </c>
@@ -1077,6 +1139,9 @@
       <c r="F16" t="s">
         <v>77</v>
       </c>
+      <c r="G16">
+        <v>45</v>
+      </c>
       <c r="H16" t="s">
         <v>57</v>
       </c>
@@ -1090,7 +1155,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>79</v>
       </c>
@@ -1106,6 +1171,9 @@
       <c r="F17" t="s">
         <v>83</v>
       </c>
+      <c r="G17">
+        <v>45</v>
+      </c>
       <c r="H17" t="s">
         <v>57</v>
       </c>
@@ -1119,7 +1187,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>86</v>
       </c>
@@ -1135,6 +1203,9 @@
       <c r="F18" t="s">
         <v>90</v>
       </c>
+      <c r="G18">
+        <v>45</v>
+      </c>
       <c r="H18" t="s">
         <v>57</v>
       </c>
@@ -1148,12 +1219,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>95</v>
       </c>
+      <c r="G19">
+        <v>45</v>
+      </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1162,10 +1236,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>96</v>
       </c>
+      <c r="G20">
+        <v>45</v>
+      </c>
       <c r="H20" t="s">
         <v>99</v>
       </c>
@@ -1176,10 +1253,13 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>97</v>
       </c>
+      <c r="G21">
+        <v>45</v>
+      </c>
       <c r="H21" t="s">
         <v>99</v>
       </c>
@@ -1190,12 +1270,15 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>98</v>
       </c>
+      <c r="G22">
+        <v>45</v>
+      </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J22">
         <v>1</v>
